--- a/Batch-04/Interview Study Material/Issues and Resolution/Issues and Resolution file.xlsx
+++ b/Batch-04/Interview Study Material/Issues and Resolution/Issues and Resolution file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a-godwill.ngwanah\asa-02\July-06-20_02\Interview Study Material\Issues and Resolution\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a-godwill.ngwanah\tngs\AWS-Sol-Arch-02\Batch-04\Interview Study Material\Issues and Resolution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B62DB64-E334-40DC-98FC-6BC5ECC4712C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98CE35E-4282-4D41-9DD6-283A400C7B6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4250" windowHeight="740" xr2:uid="{4A53F683-5134-4451-B1C3-4B6CC2108B13}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A53F683-5134-4451-B1C3-4B6CC2108B13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Question</t>
   </si>
@@ -49,15 +49,6 @@
   </si>
   <si>
     <t>Issue 2</t>
-  </si>
-  <si>
-    <t>Issue 3</t>
-  </si>
-  <si>
-    <t>Issue 4</t>
-  </si>
-  <si>
-    <t>Issue 5</t>
   </si>
   <si>
     <t>Need help accessing a EC2 Instance where the pem key cannot be found. A previous employee that managed it is gone and the search of this file had no results. Thanks</t>
@@ -87,14 +78,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -113,8 +96,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,13 +112,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -161,23 +156,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,68 +483,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92999485-1E96-45F2-AB09-F80336747E37}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="52.81640625" customWidth="1"/>
+    <col min="2" max="2" width="52.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="88.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="201.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:3" ht="124" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>9</v>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
